--- a/data-raw/Health Share Counts Combined.xlsx
+++ b/data-raw/Health Share Counts Combined.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidkeyes/Documents/Work/R for the Rest of Us/clients/PRE/washcomap/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E87AA3D-27ED-6A4E-96C5-D596D9E8CE59}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B0B7503-4CED-DF42-A56D-110CC7858789}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4160" yWindow="2720" windowWidth="20740" windowHeight="11160" firstSheet="1" activeTab="5" xr2:uid="{C0B0E623-B890-45AB-92DC-259A6014D4AD}"/>
+    <workbookView xWindow="4160" yWindow="2720" windowWidth="20740" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{C0B0E623-B890-45AB-92DC-259A6014D4AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Combined Ages (2)" sheetId="15" r:id="rId1"/>
@@ -10865,8 +10865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{431E371A-A19B-4DE3-B9F8-947638E1CED8}">
   <dimension ref="A1:I80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11250,6 +11250,10 @@
       <c r="F16" s="3">
         <f t="shared" si="1"/>
         <v>2.5</v>
+      </c>
+      <c r="H16">
+        <f>MEDIAN(F2:F63)</f>
+        <v>1.5</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -12675,7 +12679,7 @@
   <dimension ref="A1:I81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="F2" sqref="F2:F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14503,7 +14507,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E4C0CF7-BE1D-424E-9ACF-FC8CD3A75427}">
   <dimension ref="A1:I81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B80"/>
     </sheetView>
   </sheetViews>
